--- a/biology/Zoologie/Droopy/Droopy.xlsx
+++ b/biology/Zoologie/Droopy/Droopy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Droopy est un chien anthropomorphe de dessin animé créé par Tex Avery en 1943.
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-Selon Tex Avery lui-même, Droopy lui a été inspiré par la voix trainante, chuintante, entendue dans la série radiophonique Fibber McGee and Molly (en) (1935–1959). Il a décidé d'animer un chien pour incarner cette voix. Bill Thompson a fait la voix de Droopy. Le petit chien est animé la première fois en mars 1943 dans le court-métrage Droopy fin limier (Dumb-Hounded) où il a le rôle principal avec le personnage récurrent du loup[1].
-Période classique
-Période moderne
-Après 1988, à la suite de son apparition remarquée dans le film Qui veut la peau de Roger Rabbit, les studios Disney le reprendront dans les trois courts-métrages de Roger Rabbit.
-Il apparait ensuite à la télévision accompagné de son fils Dripple dans certains épisodes de la série télévisée Tom et Jerry Kids produite par Hanna-Barbera avant d'avoir sa propre série télévisée, Le Droopy et Dripple Show.
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tex Avery lui-même, Droopy lui a été inspiré par la voix trainante, chuintante, entendue dans la série radiophonique Fibber McGee and Molly (en) (1935–1959). Il a décidé d'animer un chien pour incarner cette voix. Bill Thompson a fait la voix de Droopy. Le petit chien est animé la première fois en mars 1943 dans le court-métrage Droopy fin limier (Dumb-Hounded) où il a le rôle principal avec le personnage récurrent du loup.
 </t>
         </is>
       </c>
@@ -546,10 +559,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après 1988, à la suite de son apparition remarquée dans le film Qui veut la peau de Roger Rabbit, les studios Disney le reprendront dans les trois courts-métrages de Roger Rabbit.
+Il apparait ensuite à la télévision accompagné de son fils Dripple dans certains épisodes de la série télévisée Tom et Jerry Kids produite par Hanna-Barbera avant d'avoir sa propre série télévisée, Le Droopy et Dripple Show.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Droopy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Droopy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Le personnage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Droopy est un petit chien blanc anthropomorphe à oreilles noires tombantes (droop signifie en anglais : retomber, s'affaisser). Il est bedonnant, doté de courtes jambes et d'une énorme tête par rapport à son corps. Des poils roux garnissent le sommet de son crâne.
 Droopy semble le plus souvent apathique, faible, lent et triste, mais est capable d'exploits surprenants, y compris physiquement. Il lui arrive ainsi d'exploser soudainement de joie (« I am happy! ») puis de reprendre son air traînant.
@@ -558,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Droopy</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Droopy</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Droopy fin limier (Dumb-Hounded), 1943
 Droopy en Alaska (The Shooting of Dan McGoo), 1945
@@ -621,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Droopy</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Droopy</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ludographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Droopy's Tennis Open, 2002</t>
         </is>
